--- a/Data Inputs/Bin_Pack_Test_Data.xlsx
+++ b/Data Inputs/Bin_Pack_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mealt\Documents\GitHub\IE-431-Senior-Design-Telamon\Data Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD441B-AA2E-4C30-8ADE-29AC06940D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06C2D2-4A45-400A-A4E4-1E8818B7688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Length</t>
   </si>
@@ -76,40 +76,37 @@
     <t>Bin Name</t>
   </si>
   <si>
+    <t>20x20x26</t>
+  </si>
+  <si>
+    <t>20x20x30</t>
+  </si>
+  <si>
+    <t>18x18x20</t>
+  </si>
+  <si>
+    <t>20x20x8</t>
+  </si>
+  <si>
     <t>24x12x12</t>
   </si>
   <si>
-    <t>11x11x5</t>
-  </si>
-  <si>
-    <t>22x22x18</t>
-  </si>
-  <si>
-    <t>28x18x10</t>
-  </si>
-  <si>
-    <t>12x12x12</t>
-  </si>
-  <si>
-    <t>16x16x16</t>
-  </si>
-  <si>
-    <t>20x20x20</t>
-  </si>
-  <si>
-    <t>24x24x24</t>
-  </si>
-  <si>
-    <t>18x14x8</t>
-  </si>
-  <si>
-    <t>26x15x7</t>
-  </si>
-  <si>
-    <t>18x14x4</t>
-  </si>
-  <si>
-    <t>24x24x16</t>
+    <t>18x12x6</t>
+  </si>
+  <si>
+    <t>14x10x6</t>
+  </si>
+  <si>
+    <t>18x12x2</t>
+  </si>
+  <si>
+    <t>12x10x2</t>
+  </si>
+  <si>
+    <t>12x8x4</t>
+  </si>
+  <si>
+    <t>10x8x2</t>
   </si>
 </sst>
 </file>
@@ -427,232 +424,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465E9103-4D3F-4595-974B-E0A7D6D30D40}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>11</v>
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>22</v>
-      </c>
       <c r="B3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>28</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>24</v>
-      </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
         <v>200</v>
       </c>
     </row>
